--- a/DM/seed/Domain Data Template.xlsx
+++ b/DM/seed/Domain Data Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LiuZP\00 LiuZP\Code\Python\DM\seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C27C54-A6C1-44C7-941A-B29751B755F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF521B6A-164E-48B4-9EF4-CA88AD656B8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="618" activeTab="4" xr2:uid="{2106D2D4-3865-4892-A6F6-16BFFBD29CC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="618" xr2:uid="{2106D2D4-3865-4892-A6F6-16BFFBD29CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Activity" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Customer_Profile" sheetId="5" r:id="rId4"/>
     <sheet name="Location" sheetId="12" r:id="rId5"/>
     <sheet name="Checking_Query" sheetId="31" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="32" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="146">
   <si>
     <t>Customer_Address_Mailing</t>
   </si>
@@ -133,9 +132,6 @@
   </si>
   <si>
     <t>VA</t>
-  </si>
-  <si>
-    <t>VT</t>
   </si>
   <si>
     <t>Modeling</t>
@@ -474,6 +470,12 @@
   </si>
   <si>
     <t>dbo_D_LOCATION.FACILITY_HQ_NM</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>DE</t>
   </si>
 </sst>
 </file>
@@ -858,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -973,11 +975,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,6 +989,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1317,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBC1CF8-6993-481F-A8DB-AC849BEBAEE9}">
-  <dimension ref="A1:AI26"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AI1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1328,199 +1333,219 @@
     <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="48" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="48" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50" t="s">
+      <c r="S1" s="50"/>
+      <c r="T1" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="48"/>
+      <c r="V1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="50" t="s">
+      <c r="W1" s="50"/>
+      <c r="X1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="48" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50" t="s">
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="48" t="s">
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="50" t="s">
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="48" t="s">
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI1" s="51"/>
-    </row>
-    <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM1" s="50"/>
+    </row>
+    <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="52"/>
       <c r="B2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI2" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="16"/>
@@ -1552,22 +1577,26 @@
       <c r="AG3" s="16"/>
       <c r="AH3" s="39"/>
       <c r="AI3" s="36"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="11"/>
@@ -1599,22 +1628,26 @@
       <c r="AG4" s="11"/>
       <c r="AH4" s="40"/>
       <c r="AI4" s="37"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="37"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="11"/>
@@ -1646,22 +1679,26 @@
       <c r="AG5" s="11"/>
       <c r="AH5" s="40"/>
       <c r="AI5" s="37"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="37"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="11"/>
@@ -1693,16 +1730,20 @@
       <c r="AG6" s="11"/>
       <c r="AH6" s="40"/>
       <c r="AI6" s="37"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="37"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -1736,16 +1777,20 @@
       <c r="AG7" s="11"/>
       <c r="AH7" s="40"/>
       <c r="AI7" s="37"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="37"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -1779,16 +1824,20 @@
       <c r="AG8" s="11"/>
       <c r="AH8" s="40"/>
       <c r="AI8" s="37"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="37"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -1822,16 +1871,20 @@
       <c r="AG9" s="11"/>
       <c r="AH9" s="40"/>
       <c r="AI9" s="37"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="37"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -1865,16 +1918,20 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="40"/>
       <c r="AI10" s="37"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="37"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -1908,22 +1965,26 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="40"/>
       <c r="AI11" s="37"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="37"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="11"/>
@@ -1955,22 +2016,26 @@
       <c r="AG12" s="11"/>
       <c r="AH12" s="40"/>
       <c r="AI12" s="37"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="37"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="11"/>
@@ -2002,22 +2067,26 @@
       <c r="AG13" s="11"/>
       <c r="AH13" s="40"/>
       <c r="AI13" s="37"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="37"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="11"/>
@@ -2049,22 +2118,26 @@
       <c r="AG14" s="11"/>
       <c r="AH14" s="40"/>
       <c r="AI14" s="37"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="37"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="11"/>
@@ -2096,16 +2169,20 @@
       <c r="AG15" s="11"/>
       <c r="AH15" s="40"/>
       <c r="AI15" s="37"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="37"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -2139,16 +2216,20 @@
       <c r="AG16" s="11"/>
       <c r="AH16" s="40"/>
       <c r="AI16" s="37"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="37"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
@@ -2182,16 +2263,20 @@
       <c r="AG17" s="11"/>
       <c r="AH17" s="40"/>
       <c r="AI17" s="37"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="37"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -2225,22 +2310,26 @@
       <c r="AG18" s="11"/>
       <c r="AH18" s="40"/>
       <c r="AI18" s="37"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="40"/>
+      <c r="AM18" s="37"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="11"/>
@@ -2272,22 +2361,26 @@
       <c r="AG19" s="11"/>
       <c r="AH19" s="40"/>
       <c r="AI19" s="37"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="37"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="11"/>
@@ -2319,22 +2412,26 @@
       <c r="AG20" s="11"/>
       <c r="AH20" s="40"/>
       <c r="AI20" s="37"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="37"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="11"/>
@@ -2366,22 +2463,26 @@
       <c r="AG21" s="11"/>
       <c r="AH21" s="40"/>
       <c r="AI21" s="37"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="37"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="11"/>
@@ -2413,22 +2514,26 @@
       <c r="AG22" s="11"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="37"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="37"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="11"/>
@@ -2460,16 +2565,20 @@
       <c r="AG23" s="11"/>
       <c r="AH23" s="40"/>
       <c r="AI23" s="37"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="37"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -2503,22 +2612,26 @@
       <c r="AG24" s="11"/>
       <c r="AH24" s="40"/>
       <c r="AI24" s="37"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="37"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="11"/>
@@ -2550,22 +2663,26 @@
       <c r="AG25" s="11"/>
       <c r="AH25" s="40"/>
       <c r="AI25" s="37"/>
-    </row>
-    <row r="26" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="37"/>
+    </row>
+    <row r="26" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="13"/>
@@ -2597,16 +2714,15 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="41"/>
       <c r="AI26" s="38"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
+  <mergeCells count="20">
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
@@ -2618,17 +2734,25 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E46EEC-20EB-464F-AE3C-452FCBCE0E9B}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:Q1048576"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2636,199 +2760,219 @@
     <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="48" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="48" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50" t="s">
+      <c r="S1" s="50"/>
+      <c r="T1" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="48"/>
+      <c r="V1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="50" t="s">
+      <c r="W1" s="50"/>
+      <c r="X1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="48" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50" t="s">
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="48" t="s">
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="50" t="s">
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="48" t="s">
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI1" s="51"/>
-    </row>
-    <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM1" s="50"/>
+    </row>
+    <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="51"/>
       <c r="B2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI2" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="16"/>
@@ -2860,22 +3004,26 @@
       <c r="AG3" s="16"/>
       <c r="AH3" s="39"/>
       <c r="AI3" s="36"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="16"/>
@@ -2907,22 +3055,26 @@
       <c r="AG4" s="16"/>
       <c r="AH4" s="39"/>
       <c r="AI4" s="36"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="36"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="11"/>
@@ -2954,22 +3106,26 @@
       <c r="AG5" s="11"/>
       <c r="AH5" s="40"/>
       <c r="AI5" s="37"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="37"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="11"/>
@@ -3001,22 +3157,26 @@
       <c r="AG6" s="11"/>
       <c r="AH6" s="40"/>
       <c r="AI6" s="37"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="37"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="11"/>
@@ -3048,16 +3208,20 @@
       <c r="AG7" s="11"/>
       <c r="AH7" s="40"/>
       <c r="AI7" s="37"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="37"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -3091,16 +3255,20 @@
       <c r="AG8" s="11"/>
       <c r="AH8" s="40"/>
       <c r="AI8" s="37"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="37"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -3134,22 +3302,26 @@
       <c r="AG9" s="11"/>
       <c r="AH9" s="40"/>
       <c r="AI9" s="37"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="37"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="11"/>
@@ -3181,22 +3353,26 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="40"/>
       <c r="AI10" s="37"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="37"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="11"/>
@@ -3228,22 +3404,26 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="40"/>
       <c r="AI11" s="37"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="37"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="11"/>
@@ -3275,22 +3455,26 @@
       <c r="AG12" s="11"/>
       <c r="AH12" s="40"/>
       <c r="AI12" s="37"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="37"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="11"/>
@@ -3322,22 +3506,26 @@
       <c r="AG13" s="11"/>
       <c r="AH13" s="40"/>
       <c r="AI13" s="37"/>
-    </row>
-    <row r="14" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="37"/>
+    </row>
+    <row r="14" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="13"/>
@@ -3369,16 +3557,15 @@
       <c r="AG14" s="13"/>
       <c r="AH14" s="41"/>
       <c r="AI14" s="38"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
+  <mergeCells count="20">
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -3390,6 +3577,13 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3397,10 +3591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7549514-47DE-45EB-BE25-730292EFC949}">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:Q1048576"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3408,199 +3602,219 @@
     <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="48" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="48" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50" t="s">
+      <c r="S1" s="50"/>
+      <c r="T1" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="48"/>
+      <c r="V1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="50" t="s">
+      <c r="W1" s="50"/>
+      <c r="X1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="48" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50" t="s">
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="48" t="s">
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="50" t="s">
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="48" t="s">
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI1" s="51"/>
-    </row>
-    <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM1" s="50"/>
+    </row>
+    <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="52"/>
       <c r="B2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI2" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="16"/>
@@ -3632,22 +3846,26 @@
       <c r="AG3" s="16"/>
       <c r="AH3" s="39"/>
       <c r="AI3" s="36"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="16"/>
@@ -3679,22 +3897,26 @@
       <c r="AG4" s="16"/>
       <c r="AH4" s="39"/>
       <c r="AI4" s="36"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="36"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="11"/>
@@ -3726,22 +3948,26 @@
       <c r="AG5" s="11"/>
       <c r="AH5" s="40"/>
       <c r="AI5" s="37"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="37"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="11"/>
@@ -3773,22 +3999,26 @@
       <c r="AG6" s="11"/>
       <c r="AH6" s="40"/>
       <c r="AI6" s="37"/>
-    </row>
-    <row r="7" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="37"/>
+    </row>
+    <row r="7" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="13"/>
@@ -3820,16 +4050,15 @@
       <c r="AG7" s="13"/>
       <c r="AH7" s="41"/>
       <c r="AI7" s="38"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
+  <mergeCells count="20">
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -3841,6 +4070,13 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3848,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD8B9E0-6956-472F-8AED-5403C83B8FC7}">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:R1048576"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3860,200 +4096,220 @@
     <col min="2" max="2" width="35.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="48" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="48" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50" t="s">
+      <c r="T1" s="50"/>
+      <c r="U1" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="48"/>
+      <c r="W1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="48" t="s">
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="50" t="s">
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50" t="s">
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ1" s="51"/>
-    </row>
-    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN1" s="50"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN2" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>36</v>
-      </c>
       <c r="C3" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
@@ -4087,25 +4343,29 @@
       <c r="AH3" s="9"/>
       <c r="AI3" s="42"/>
       <c r="AJ3" s="43"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="11"/>
@@ -4137,19 +4397,23 @@
       <c r="AH4" s="11"/>
       <c r="AI4" s="34"/>
       <c r="AJ4" s="37"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="37"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
@@ -4183,25 +4447,29 @@
       <c r="AH5" s="11"/>
       <c r="AI5" s="34"/>
       <c r="AJ5" s="37"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="37"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="11"/>
@@ -4233,25 +4501,29 @@
       <c r="AH6" s="11"/>
       <c r="AI6" s="34"/>
       <c r="AJ6" s="37"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="37"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>46</v>
-      </c>
       <c r="C7" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="11"/>
@@ -4283,25 +4555,29 @@
       <c r="AH7" s="11"/>
       <c r="AI7" s="34"/>
       <c r="AJ7" s="37"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="37"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="11"/>
@@ -4333,25 +4609,29 @@
       <c r="AH8" s="11"/>
       <c r="AI8" s="34"/>
       <c r="AJ8" s="37"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="37"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="11"/>
@@ -4383,25 +4663,29 @@
       <c r="AH9" s="11"/>
       <c r="AI9" s="34"/>
       <c r="AJ9" s="37"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="37"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="11"/>
@@ -4433,25 +4717,29 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="34"/>
       <c r="AJ10" s="37"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="37"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="11"/>
@@ -4483,25 +4771,29 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="34"/>
       <c r="AJ11" s="37"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="37"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="11"/>
@@ -4533,25 +4825,29 @@
       <c r="AH12" s="11"/>
       <c r="AI12" s="34"/>
       <c r="AJ12" s="37"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="37"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>58</v>
-      </c>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="11"/>
@@ -4583,25 +4879,29 @@
       <c r="AH13" s="11"/>
       <c r="AI13" s="34"/>
       <c r="AJ13" s="37"/>
-    </row>
-    <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="37"/>
+    </row>
+    <row r="14" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="13"/>
@@ -4633,17 +4933,15 @@
       <c r="AH14" s="13"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="38"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
+  <mergeCells count="21">
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
@@ -4655,6 +4953,14 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4662,10 +4968,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C0D7AB-943A-42F0-938E-A4DB31B9B282}">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4675,204 +4981,224 @@
     <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="48" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="48" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50" t="s">
+      <c r="T1" s="50"/>
+      <c r="U1" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="48"/>
+      <c r="W1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="48" t="s">
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="50" t="s">
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50" t="s">
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ1" s="51"/>
-    </row>
-    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN1" s="50"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W2" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB2" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC2" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE2" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF2" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG2" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH2" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI2" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ2" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM2" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN2" s="45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="9"/>
@@ -4904,19 +5230,23 @@
       <c r="AH3" s="9"/>
       <c r="AI3" s="42"/>
       <c r="AJ3" s="43"/>
-    </row>
-    <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
+    </row>
+    <row r="4" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="42"/>
       <c r="F4" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="9"/>
@@ -4948,21 +5278,25 @@
       <c r="AH4" s="9"/>
       <c r="AI4" s="42"/>
       <c r="AJ4" s="43"/>
-    </row>
-    <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="43"/>
+    </row>
+    <row r="5" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="42"/>
       <c r="F5" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="9"/>
@@ -4994,21 +5328,25 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="42"/>
       <c r="AJ5" s="43"/>
-    </row>
-    <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="43"/>
+    </row>
+    <row r="6" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="9"/>
@@ -5040,21 +5378,25 @@
       <c r="AH6" s="9"/>
       <c r="AI6" s="42"/>
       <c r="AJ6" s="43"/>
-    </row>
-    <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="43"/>
+    </row>
+    <row r="7" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="42"/>
       <c r="F7" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="9"/>
@@ -5086,21 +5428,25 @@
       <c r="AH7" s="9"/>
       <c r="AI7" s="42"/>
       <c r="AJ7" s="43"/>
-    </row>
-    <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="43"/>
+    </row>
+    <row r="8" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="9"/>
@@ -5132,13 +5478,17 @@
       <c r="AH8" s="9"/>
       <c r="AI8" s="42"/>
       <c r="AJ8" s="43"/>
-    </row>
-    <row r="9" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="43"/>
+    </row>
+    <row r="9" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -5174,13 +5524,17 @@
       <c r="AH9" s="9"/>
       <c r="AI9" s="42"/>
       <c r="AJ9" s="43"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="43"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -5216,9 +5570,23 @@
       <c r="AH10" s="9"/>
       <c r="AI10" s="42"/>
       <c r="AJ10" s="43"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -5230,14 +5598,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5260,453 +5620,453 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
         <v>91</v>
       </c>
-      <c r="B40" t="s">
-        <v>92</v>
-      </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -5714,10 +6074,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
         <v>127</v>
-      </c>
-      <c r="C42" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -5725,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
         <v>129</v>
-      </c>
-      <c r="C43" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -5736,10 +6096,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -5747,10 +6107,10 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -5758,10 +6118,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -5769,10 +6129,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -5780,10 +6140,10 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -5791,10 +6151,10 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -5802,10 +6162,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -5813,10 +6173,10 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -5824,10 +6184,10 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" t="s">
         <v>139</v>
-      </c>
-      <c r="C52" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -5835,28 +6195,10 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" t="s">
         <v>141</v>
-      </c>
-      <c r="C53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE5DFB-EB52-48AD-9072-0AB5B4D73B13}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/DM/seed/Domain Data Template.xlsx
+++ b/DM/seed/Domain Data Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sculver\Documents\Domain Data Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LiuZP\00 LiuZP\Code\Python\DM\seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F3B1CA-2E5F-4EF6-8DE1-80884ED233F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAC7181-426F-4941-9F18-4AB4A7D61284}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="17020" windowHeight="10120" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Activity" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <sheet name="Location" sheetId="5" r:id="rId5"/>
     <sheet name="Checking_Query" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="147">
   <si>
     <t>Datasets</t>
   </si>
@@ -93,6 +85,9 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>MS</t>
   </si>
   <si>
     <t>Modeling</t>
@@ -424,9 +419,6 @@
     <t>SELECT P.PRD_ID FROM {SOURCE_SCHEMA}.P_PRD P WHERE P.PRODUCT_CAT_ID = 3 AND ROWNUM = 1</t>
   </si>
   <si>
-    <t>SELECT A.ATTR_ID FROM {SOURCE_SCHEMA}.P_PRD P INNER JOIN {SOURCE_SCHEMA}.P_PRD PP ON PP.PRD_ID = P.PARENT_ID AND P.PRD_REL_TYPE = 3 INNER JOIN {SOURCE_SCHEMA}.P_PRD_ATTR PA ON PA.PRD_ID = COALESCE( PP.PRD_ID, P.PRD_ID ) INNER JOIN {SOURCE_SCHEMA}.D_ATTR A ON A.ATTR_ID = PA.ATTR_ID WHERE P.PRODUCT_CAT_ID = 3 AND PA.ACTIVE_IND = 1 AND PA.DELETED_IND = 0 AND ROWNUM = 1</t>
-  </si>
-  <si>
     <t>SELECT MSG.ID FROM {SOURCE_SCHEMA}.C_MSG MSG INNER JOIN {SOURCE_SCHEMA}.P_PRD_MSG PRD_MSG ON MSG.ID = PRD_MSG.MSG_ID INNER JOIN {SOURCE_SCHEMA}.P_PRD PRD ON PRD_MSG.PRD_ID = PRD.PRD_ID AND PRD.PRODUCT_CAT_ID = 3 WHERE MSG.TYPE_ID IN (1,2,20) AND ROWNUM = 1</t>
   </si>
   <si>
@@ -475,7 +467,7 @@
     <t>SELECT name_39 FROM {SOURCE_SCHEMA}.D_LOC_HIERARCHY WHERE name_39 IS NOT NULL AND ROWNUM = 1</t>
   </si>
   <si>
-    <t>MS</t>
+    <t>SELECT p.prd_id FROM {SOURCE_SCHEMA}.p_prd p WHERE p.product_cat_id = 3 AND p.prd_rel_type IN(1,3) AND p.unit_of_stay_type_id IN (1,2) AND ROWNUM = 1</t>
   </si>
 </sst>
 </file>
@@ -513,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -847,11 +839,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -966,15 +1012,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -982,6 +1029,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1298,580 +1355,444 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AQ13" sqref="AQ13"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AO5" sqref="AO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" style="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="46" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="46" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="46" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="48" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="46" t="s">
+      <c r="W1" s="48"/>
+      <c r="X1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="48" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="46" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="48" t="s">
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="46" t="s">
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="46" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="48" t="s">
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO1" s="47"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="56"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="AN2" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" s="54" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F3" s="19"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="32" t="s">
-        <v>23</v>
-      </c>
+      <c r="H3" s="32"/>
       <c r="I3" s="35"/>
-      <c r="J3" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="J3" s="19"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="32" t="s">
-        <v>23</v>
-      </c>
+      <c r="L3" s="32"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="N3" s="19"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="P3" s="22"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="R3" s="38"/>
       <c r="S3" s="35"/>
-      <c r="T3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="T3" s="22"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="V3" s="38"/>
       <c r="W3" s="35"/>
-      <c r="X3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="X3" s="22"/>
       <c r="Y3" s="16"/>
-      <c r="Z3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z3" s="38"/>
       <c r="AA3" s="35"/>
-      <c r="AB3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB3" s="22"/>
       <c r="AC3" s="16"/>
-      <c r="AD3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD3" s="38"/>
       <c r="AE3" s="35"/>
-      <c r="AF3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF3" s="22"/>
       <c r="AG3" s="16"/>
-      <c r="AH3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH3" s="38"/>
       <c r="AI3" s="35"/>
-      <c r="AJ3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ3" s="22"/>
       <c r="AK3" s="16"/>
-      <c r="AL3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL3" s="38"/>
       <c r="AM3" s="35"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="16"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F4" s="20"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H4" s="33"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J4" s="20"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L4" s="33"/>
       <c r="M4" s="36"/>
-      <c r="N4" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N4" s="20"/>
       <c r="O4" s="11"/>
-      <c r="P4" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P4" s="23"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R4" s="39"/>
       <c r="S4" s="36"/>
-      <c r="T4" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T4" s="23"/>
       <c r="U4" s="11"/>
-      <c r="V4" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V4" s="39"/>
       <c r="W4" s="36"/>
-      <c r="X4" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X4" s="23"/>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z4" s="39"/>
       <c r="AA4" s="36"/>
-      <c r="AB4" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB4" s="23"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD4" s="39"/>
       <c r="AE4" s="36"/>
-      <c r="AF4" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF4" s="23"/>
       <c r="AG4" s="11"/>
-      <c r="AH4" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH4" s="39"/>
       <c r="AI4" s="36"/>
-      <c r="AJ4" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ4" s="23"/>
       <c r="AK4" s="11"/>
-      <c r="AL4" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL4" s="39"/>
       <c r="AM4" s="36"/>
       <c r="AN4" s="23"/>
       <c r="AO4" s="11"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F5" s="20"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H5" s="33"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J5" s="20"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L5" s="33"/>
       <c r="M5" s="36"/>
-      <c r="N5" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N5" s="20"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P5" s="23"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R5" s="39"/>
       <c r="S5" s="36"/>
-      <c r="T5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T5" s="23"/>
       <c r="U5" s="11"/>
-      <c r="V5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V5" s="39"/>
       <c r="W5" s="36"/>
-      <c r="X5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X5" s="23"/>
       <c r="Y5" s="11"/>
-      <c r="Z5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z5" s="39"/>
       <c r="AA5" s="36"/>
-      <c r="AB5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD5" s="39"/>
       <c r="AE5" s="36"/>
-      <c r="AF5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF5" s="23"/>
       <c r="AG5" s="11"/>
-      <c r="AH5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH5" s="39"/>
       <c r="AI5" s="36"/>
-      <c r="AJ5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ5" s="23"/>
       <c r="AK5" s="11"/>
-      <c r="AL5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL5" s="39"/>
       <c r="AM5" s="36"/>
       <c r="AN5" s="23"/>
       <c r="AO5" s="11"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H6" s="33"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J6" s="20"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L6" s="33"/>
       <c r="M6" s="36"/>
-      <c r="N6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N6" s="20"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P6" s="23"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R6" s="39"/>
       <c r="S6" s="36"/>
-      <c r="T6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T6" s="23"/>
       <c r="U6" s="11"/>
-      <c r="V6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V6" s="39"/>
       <c r="W6" s="36"/>
-      <c r="X6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X6" s="23"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z6" s="39"/>
       <c r="AA6" s="36"/>
-      <c r="AB6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD6" s="39"/>
       <c r="AE6" s="36"/>
-      <c r="AF6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF6" s="23"/>
       <c r="AG6" s="11"/>
-      <c r="AH6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH6" s="39"/>
       <c r="AI6" s="36"/>
-      <c r="AJ6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ6" s="23"/>
       <c r="AK6" s="11"/>
-      <c r="AL6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL6" s="39"/>
       <c r="AM6" s="36"/>
       <c r="AN6" s="23"/>
       <c r="AO6" s="11"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -1914,13 +1835,13 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -1963,13 +1884,13 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -1997,9 +1918,7 @@
       <c r="AA9" s="36"/>
       <c r="AB9" s="23"/>
       <c r="AC9" s="11"/>
-      <c r="AD9" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD9" s="39"/>
       <c r="AE9" s="36"/>
       <c r="AF9" s="23"/>
       <c r="AG9" s="11"/>
@@ -2014,33 +1933,25 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="20"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H10" s="33"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J10" s="20"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L10" s="33"/>
       <c r="M10" s="36"/>
-      <c r="N10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N10" s="20"/>
       <c r="O10" s="11"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="11"/>
@@ -2048,33 +1959,21 @@
       <c r="S10" s="36"/>
       <c r="T10" s="23"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V10" s="39"/>
       <c r="W10" s="36"/>
-      <c r="X10" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X10" s="23"/>
       <c r="Y10" s="11"/>
-      <c r="Z10" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z10" s="39"/>
       <c r="AA10" s="36"/>
       <c r="AB10" s="23"/>
       <c r="AC10" s="11"/>
-      <c r="AD10" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD10" s="39"/>
       <c r="AE10" s="36"/>
       <c r="AF10" s="23"/>
       <c r="AG10" s="11"/>
-      <c r="AH10" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH10" s="39"/>
       <c r="AI10" s="36"/>
-      <c r="AJ10" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ10" s="23"/>
       <c r="AK10" s="11"/>
       <c r="AL10" s="39"/>
       <c r="AM10" s="36"/>
@@ -2083,33 +1982,25 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="20"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H11" s="33"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J11" s="20"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L11" s="33"/>
       <c r="M11" s="36"/>
-      <c r="N11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N11" s="20"/>
       <c r="O11" s="11"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="11"/>
@@ -2117,33 +2008,21 @@
       <c r="S11" s="36"/>
       <c r="T11" s="23"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V11" s="39"/>
       <c r="W11" s="36"/>
-      <c r="X11" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X11" s="23"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z11" s="39"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="23"/>
       <c r="AC11" s="11"/>
-      <c r="AD11" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD11" s="39"/>
       <c r="AE11" s="36"/>
       <c r="AF11" s="23"/>
       <c r="AG11" s="11"/>
-      <c r="AH11" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH11" s="39"/>
       <c r="AI11" s="36"/>
-      <c r="AJ11" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ11" s="23"/>
       <c r="AK11" s="11"/>
       <c r="AL11" s="39"/>
       <c r="AM11" s="36"/>
@@ -2152,361 +2031,225 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F12" s="20"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H12" s="33"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J12" s="20"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L12" s="33"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N12" s="20"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P12" s="23"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R12" s="39"/>
       <c r="S12" s="36"/>
-      <c r="T12" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T12" s="23"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V12" s="39"/>
       <c r="W12" s="36"/>
-      <c r="X12" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X12" s="23"/>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z12" s="39"/>
       <c r="AA12" s="36"/>
-      <c r="AB12" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB12" s="23"/>
       <c r="AC12" s="11"/>
-      <c r="AD12" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD12" s="39"/>
       <c r="AE12" s="36"/>
-      <c r="AF12" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF12" s="23"/>
       <c r="AG12" s="11"/>
-      <c r="AH12" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH12" s="39"/>
       <c r="AI12" s="36"/>
-      <c r="AJ12" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ12" s="23"/>
       <c r="AK12" s="11"/>
-      <c r="AL12" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL12" s="39"/>
       <c r="AM12" s="36"/>
       <c r="AN12" s="23"/>
       <c r="AO12" s="11"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F13" s="20"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H13" s="33"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J13" s="20"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L13" s="33"/>
       <c r="M13" s="36"/>
-      <c r="N13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N13" s="20"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P13" s="23"/>
       <c r="Q13" s="11"/>
-      <c r="R13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R13" s="39"/>
       <c r="S13" s="36"/>
-      <c r="T13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T13" s="23"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V13" s="39"/>
       <c r="W13" s="36"/>
-      <c r="X13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X13" s="23"/>
       <c r="Y13" s="11"/>
-      <c r="Z13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z13" s="39"/>
       <c r="AA13" s="36"/>
-      <c r="AB13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB13" s="23"/>
       <c r="AC13" s="11"/>
-      <c r="AD13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD13" s="39"/>
       <c r="AE13" s="36"/>
-      <c r="AF13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF13" s="23"/>
       <c r="AG13" s="11"/>
-      <c r="AH13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH13" s="39"/>
       <c r="AI13" s="36"/>
-      <c r="AJ13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ13" s="23"/>
       <c r="AK13" s="11"/>
-      <c r="AL13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL13" s="39"/>
       <c r="AM13" s="36"/>
       <c r="AN13" s="23"/>
       <c r="AO13" s="11"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F14" s="20"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H14" s="33"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J14" s="20"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L14" s="33"/>
       <c r="M14" s="36"/>
-      <c r="N14" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N14" s="20"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P14" s="23"/>
       <c r="Q14" s="11"/>
-      <c r="R14" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R14" s="39"/>
       <c r="S14" s="36"/>
-      <c r="T14" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T14" s="23"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V14" s="39"/>
       <c r="W14" s="36"/>
-      <c r="X14" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X14" s="23"/>
       <c r="Y14" s="11"/>
-      <c r="Z14" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z14" s="39"/>
       <c r="AA14" s="36"/>
-      <c r="AB14" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB14" s="23"/>
       <c r="AC14" s="11"/>
-      <c r="AD14" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD14" s="39"/>
       <c r="AE14" s="36"/>
-      <c r="AF14" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF14" s="23"/>
       <c r="AG14" s="11"/>
-      <c r="AH14" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH14" s="39"/>
       <c r="AI14" s="36"/>
-      <c r="AJ14" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ14" s="23"/>
       <c r="AK14" s="11"/>
-      <c r="AL14" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL14" s="39"/>
       <c r="AM14" s="36"/>
       <c r="AN14" s="23"/>
       <c r="AO14" s="11"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F15" s="20"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H15" s="33"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J15" s="20"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L15" s="33"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N15" s="20"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P15" s="23"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R15" s="39"/>
       <c r="S15" s="36"/>
-      <c r="T15" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T15" s="23"/>
       <c r="U15" s="11"/>
-      <c r="V15" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V15" s="39"/>
       <c r="W15" s="36"/>
-      <c r="X15" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X15" s="23"/>
       <c r="Y15" s="11"/>
-      <c r="Z15" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z15" s="39"/>
       <c r="AA15" s="36"/>
-      <c r="AB15" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB15" s="23"/>
       <c r="AC15" s="11"/>
-      <c r="AD15" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD15" s="39"/>
       <c r="AE15" s="36"/>
-      <c r="AF15" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF15" s="23"/>
       <c r="AG15" s="11"/>
-      <c r="AH15" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH15" s="39"/>
       <c r="AI15" s="36"/>
-      <c r="AJ15" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ15" s="23"/>
       <c r="AK15" s="11"/>
-      <c r="AL15" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL15" s="39"/>
       <c r="AM15" s="36"/>
       <c r="AN15" s="23"/>
       <c r="AO15" s="11"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -2514,17 +2257,11 @@
       <c r="G16" s="11"/>
       <c r="H16" s="33"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J16" s="20"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L16" s="33"/>
       <c r="M16" s="36"/>
-      <c r="N16" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N16" s="20"/>
       <c r="O16" s="11"/>
       <c r="P16" s="23"/>
       <c r="Q16" s="11"/>
@@ -2536,9 +2273,7 @@
       <c r="W16" s="36"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z16" s="39"/>
       <c r="AA16" s="36"/>
       <c r="AB16" s="23"/>
       <c r="AC16" s="11"/>
@@ -2546,28 +2281,24 @@
       <c r="AE16" s="36"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="11"/>
-      <c r="AH16" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH16" s="39"/>
       <c r="AI16" s="36"/>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="11"/>
-      <c r="AL16" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL16" s="39"/>
       <c r="AM16" s="36"/>
       <c r="AN16" s="23"/>
       <c r="AO16" s="11"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -2575,17 +2306,11 @@
       <c r="G17" s="11"/>
       <c r="H17" s="33"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J17" s="20"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L17" s="33"/>
       <c r="M17" s="36"/>
-      <c r="N17" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N17" s="20"/>
       <c r="O17" s="11"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="11"/>
@@ -2597,9 +2322,7 @@
       <c r="W17" s="36"/>
       <c r="X17" s="23"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z17" s="39"/>
       <c r="AA17" s="36"/>
       <c r="AB17" s="23"/>
       <c r="AC17" s="11"/>
@@ -2607,28 +2330,24 @@
       <c r="AE17" s="36"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="11"/>
-      <c r="AH17" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH17" s="39"/>
       <c r="AI17" s="36"/>
       <c r="AJ17" s="23"/>
       <c r="AK17" s="11"/>
-      <c r="AL17" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL17" s="39"/>
       <c r="AM17" s="36"/>
       <c r="AN17" s="23"/>
       <c r="AO17" s="11"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -2656,17 +2375,13 @@
       <c r="AA18" s="36"/>
       <c r="AB18" s="23"/>
       <c r="AC18" s="11"/>
-      <c r="AD18" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD18" s="39"/>
       <c r="AE18" s="36"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="11"/>
       <c r="AH18" s="39"/>
       <c r="AI18" s="36"/>
-      <c r="AJ18" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ18" s="23"/>
       <c r="AK18" s="11"/>
       <c r="AL18" s="39"/>
       <c r="AM18" s="36"/>
@@ -2675,193 +2390,125 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F19" s="20"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H19" s="33"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J19" s="20"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L19" s="33"/>
       <c r="M19" s="36"/>
-      <c r="N19" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N19" s="20"/>
       <c r="O19" s="11"/>
-      <c r="P19" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P19" s="23"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R19" s="39"/>
       <c r="S19" s="36"/>
-      <c r="T19" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T19" s="23"/>
       <c r="U19" s="11"/>
-      <c r="V19" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V19" s="39"/>
       <c r="W19" s="36"/>
-      <c r="X19" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X19" s="23"/>
       <c r="Y19" s="11"/>
-      <c r="Z19" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z19" s="39"/>
       <c r="AA19" s="36"/>
-      <c r="AB19" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB19" s="23"/>
       <c r="AC19" s="11"/>
-      <c r="AD19" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD19" s="39"/>
       <c r="AE19" s="36"/>
-      <c r="AF19" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF19" s="23"/>
       <c r="AG19" s="11"/>
-      <c r="AH19" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH19" s="39"/>
       <c r="AI19" s="36"/>
-      <c r="AJ19" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ19" s="23"/>
       <c r="AK19" s="11"/>
-      <c r="AL19" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL19" s="39"/>
       <c r="AM19" s="36"/>
       <c r="AN19" s="23"/>
       <c r="AO19" s="11"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F20" s="20"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H20" s="33"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J20" s="20"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L20" s="33"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N20" s="20"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P20" s="23"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R20" s="39"/>
       <c r="S20" s="36"/>
-      <c r="T20" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T20" s="23"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V20" s="39"/>
       <c r="W20" s="36"/>
-      <c r="X20" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X20" s="23"/>
       <c r="Y20" s="11"/>
-      <c r="Z20" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z20" s="39"/>
       <c r="AA20" s="36"/>
-      <c r="AB20" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB20" s="23"/>
       <c r="AC20" s="11"/>
-      <c r="AD20" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD20" s="39"/>
       <c r="AE20" s="36"/>
-      <c r="AF20" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF20" s="23"/>
       <c r="AG20" s="11"/>
-      <c r="AH20" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH20" s="39"/>
       <c r="AI20" s="36"/>
-      <c r="AJ20" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ20" s="23"/>
       <c r="AK20" s="11"/>
-      <c r="AL20" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL20" s="39"/>
       <c r="AM20" s="36"/>
       <c r="AN20" s="23"/>
       <c r="AO20" s="11"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="11"/>
@@ -2902,187 +2549,119 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F22" s="20"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H22" s="33"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J22" s="20"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L22" s="33"/>
       <c r="M22" s="36"/>
-      <c r="N22" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N22" s="20"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P22" s="23"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R22" s="39"/>
       <c r="S22" s="36"/>
-      <c r="T22" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T22" s="23"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V22" s="39"/>
       <c r="W22" s="36"/>
-      <c r="X22" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X22" s="23"/>
       <c r="Y22" s="11"/>
-      <c r="Z22" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z22" s="39"/>
       <c r="AA22" s="36"/>
-      <c r="AB22" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB22" s="23"/>
       <c r="AC22" s="11"/>
-      <c r="AD22" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD22" s="39"/>
       <c r="AE22" s="36"/>
-      <c r="AF22" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF22" s="23"/>
       <c r="AG22" s="11"/>
-      <c r="AH22" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH22" s="39"/>
       <c r="AI22" s="36"/>
-      <c r="AJ22" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ22" s="23"/>
       <c r="AK22" s="11"/>
-      <c r="AL22" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL22" s="39"/>
       <c r="AM22" s="36"/>
       <c r="AN22" s="23"/>
       <c r="AO22" s="11"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F23" s="20"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H23" s="33"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J23" s="20"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L23" s="33"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N23" s="20"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P23" s="23"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R23" s="39"/>
       <c r="S23" s="36"/>
-      <c r="T23" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T23" s="23"/>
       <c r="U23" s="11"/>
-      <c r="V23" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V23" s="39"/>
       <c r="W23" s="36"/>
-      <c r="X23" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X23" s="23"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z23" s="39"/>
       <c r="AA23" s="36"/>
-      <c r="AB23" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB23" s="23"/>
       <c r="AC23" s="11"/>
-      <c r="AD23" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD23" s="39"/>
       <c r="AE23" s="36"/>
-      <c r="AF23" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF23" s="23"/>
       <c r="AG23" s="11"/>
-      <c r="AH23" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH23" s="39"/>
       <c r="AI23" s="36"/>
-      <c r="AJ23" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ23" s="23"/>
       <c r="AK23" s="11"/>
-      <c r="AL23" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL23" s="39"/>
       <c r="AM23" s="36"/>
       <c r="AN23" s="23"/>
       <c r="AO23" s="11"/>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -3096,17 +2675,13 @@
       <c r="M24" s="36"/>
       <c r="N24" s="20"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P24" s="23"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="39"/>
       <c r="S24" s="36"/>
       <c r="T24" s="23"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V24" s="39"/>
       <c r="W24" s="36"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="11"/>
@@ -3114,40 +2689,34 @@
       <c r="AA24" s="36"/>
       <c r="AB24" s="23"/>
       <c r="AC24" s="11"/>
-      <c r="AD24" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD24" s="39"/>
       <c r="AE24" s="36"/>
       <c r="AF24" s="23"/>
       <c r="AG24" s="11"/>
-      <c r="AH24" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH24" s="39"/>
       <c r="AI24" s="36"/>
       <c r="AJ24" s="23"/>
       <c r="AK24" s="11"/>
-      <c r="AL24" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL24" s="39"/>
       <c r="AM24" s="36"/>
       <c r="AN24" s="23"/>
       <c r="AO24" s="11"/>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="11"/>
@@ -3188,19 +2757,19 @@
     </row>
     <row r="26" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="13"/>
@@ -3248,6 +2817,9 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
@@ -3259,9 +2831,6 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3272,687 +2841,509 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO14"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP1:AS1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" style="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="46" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="46" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="46" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="48" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="46" t="s">
+      <c r="W1" s="48"/>
+      <c r="X1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="48" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="46" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="48" t="s">
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="46" t="s">
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="46" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="48" t="s">
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO1" s="47"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="48"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F3" s="19"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="32" t="s">
-        <v>23</v>
-      </c>
+      <c r="H3" s="32"/>
       <c r="I3" s="35"/>
-      <c r="J3" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="J3" s="19"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="32" t="s">
-        <v>23</v>
-      </c>
+      <c r="L3" s="32"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="N3" s="19"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="P3" s="22"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="R3" s="38"/>
       <c r="S3" s="35"/>
-      <c r="T3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="T3" s="22"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="V3" s="38"/>
       <c r="W3" s="35"/>
-      <c r="X3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="X3" s="22"/>
       <c r="Y3" s="16"/>
-      <c r="Z3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z3" s="38"/>
       <c r="AA3" s="35"/>
-      <c r="AB3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB3" s="22"/>
       <c r="AC3" s="16"/>
-      <c r="AD3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD3" s="38"/>
       <c r="AE3" s="35"/>
-      <c r="AF3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF3" s="22"/>
       <c r="AG3" s="16"/>
-      <c r="AH3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH3" s="38"/>
       <c r="AI3" s="35"/>
-      <c r="AJ3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ3" s="22"/>
       <c r="AK3" s="16"/>
-      <c r="AL3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL3" s="38"/>
       <c r="AM3" s="35"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="16"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F4" s="19"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="32" t="s">
-        <v>23</v>
-      </c>
+      <c r="H4" s="32"/>
       <c r="I4" s="35"/>
-      <c r="J4" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="J4" s="19"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="32" t="s">
-        <v>23</v>
-      </c>
+      <c r="L4" s="32"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="N4" s="19"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="P4" s="22"/>
       <c r="Q4" s="16"/>
-      <c r="R4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="R4" s="38"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="T4" s="22"/>
       <c r="U4" s="16"/>
-      <c r="V4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="V4" s="38"/>
       <c r="W4" s="35"/>
-      <c r="X4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="X4" s="22"/>
       <c r="Y4" s="16"/>
-      <c r="Z4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z4" s="38"/>
       <c r="AA4" s="35"/>
-      <c r="AB4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB4" s="22"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD4" s="38"/>
       <c r="AE4" s="35"/>
-      <c r="AF4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF4" s="22"/>
       <c r="AG4" s="16"/>
-      <c r="AH4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH4" s="38"/>
       <c r="AI4" s="35"/>
-      <c r="AJ4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ4" s="22"/>
       <c r="AK4" s="16"/>
-      <c r="AL4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL4" s="38"/>
       <c r="AM4" s="35"/>
       <c r="AN4" s="22"/>
       <c r="AO4" s="16"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F5" s="20"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H5" s="33"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J5" s="20"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L5" s="33"/>
       <c r="M5" s="36"/>
-      <c r="N5" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N5" s="20"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P5" s="23"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R5" s="39"/>
       <c r="S5" s="36"/>
-      <c r="T5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T5" s="23"/>
       <c r="U5" s="11"/>
-      <c r="V5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V5" s="39"/>
       <c r="W5" s="36"/>
-      <c r="X5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X5" s="23"/>
       <c r="Y5" s="11"/>
-      <c r="Z5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z5" s="39"/>
       <c r="AA5" s="36"/>
-      <c r="AB5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD5" s="39"/>
       <c r="AE5" s="36"/>
-      <c r="AF5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF5" s="23"/>
       <c r="AG5" s="11"/>
-      <c r="AH5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH5" s="39"/>
       <c r="AI5" s="36"/>
-      <c r="AJ5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ5" s="23"/>
       <c r="AK5" s="11"/>
-      <c r="AL5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL5" s="39"/>
       <c r="AM5" s="36"/>
       <c r="AN5" s="23"/>
       <c r="AO5" s="11"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H6" s="33"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J6" s="20"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L6" s="33"/>
       <c r="M6" s="36"/>
-      <c r="N6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N6" s="20"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P6" s="23"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R6" s="39"/>
       <c r="S6" s="36"/>
-      <c r="T6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T6" s="23"/>
       <c r="U6" s="11"/>
-      <c r="V6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V6" s="39"/>
       <c r="W6" s="36"/>
-      <c r="X6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X6" s="23"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z6" s="39"/>
       <c r="AA6" s="36"/>
-      <c r="AB6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD6" s="39"/>
       <c r="AE6" s="36"/>
-      <c r="AF6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF6" s="23"/>
       <c r="AG6" s="11"/>
-      <c r="AH6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH6" s="39"/>
       <c r="AI6" s="36"/>
-      <c r="AJ6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ6" s="23"/>
       <c r="AK6" s="11"/>
-      <c r="AL6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL6" s="39"/>
       <c r="AM6" s="36"/>
       <c r="AN6" s="23"/>
       <c r="AO6" s="11"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F7" s="20"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H7" s="33"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J7" s="20"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L7" s="33"/>
       <c r="M7" s="36"/>
-      <c r="N7" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N7" s="20"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P7" s="23"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R7" s="39"/>
       <c r="S7" s="36"/>
-      <c r="T7" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T7" s="23"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V7" s="39"/>
       <c r="W7" s="36"/>
-      <c r="X7" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X7" s="23"/>
       <c r="Y7" s="11"/>
-      <c r="Z7" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z7" s="39"/>
       <c r="AA7" s="36"/>
-      <c r="AB7" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB7" s="23"/>
       <c r="AC7" s="11"/>
-      <c r="AD7" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD7" s="39"/>
       <c r="AE7" s="36"/>
-      <c r="AF7" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF7" s="23"/>
       <c r="AG7" s="11"/>
-      <c r="AH7" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH7" s="39"/>
       <c r="AI7" s="36"/>
-      <c r="AJ7" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ7" s="23"/>
       <c r="AK7" s="11"/>
-      <c r="AL7" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL7" s="39"/>
       <c r="AM7" s="36"/>
       <c r="AN7" s="23"/>
       <c r="AO7" s="11"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="20"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H8" s="33"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J8" s="20"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L8" s="33"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N8" s="20"/>
       <c r="O8" s="11"/>
       <c r="P8" s="23"/>
       <c r="Q8" s="11"/>
@@ -3960,33 +3351,21 @@
       <c r="S8" s="36"/>
       <c r="T8" s="23"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V8" s="39"/>
       <c r="W8" s="36"/>
-      <c r="X8" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X8" s="23"/>
       <c r="Y8" s="11"/>
-      <c r="Z8" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z8" s="39"/>
       <c r="AA8" s="36"/>
       <c r="AB8" s="23"/>
       <c r="AC8" s="11"/>
-      <c r="AD8" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD8" s="39"/>
       <c r="AE8" s="36"/>
       <c r="AF8" s="23"/>
       <c r="AG8" s="11"/>
-      <c r="AH8" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH8" s="39"/>
       <c r="AI8" s="36"/>
-      <c r="AJ8" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ8" s="23"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="39"/>
       <c r="AM8" s="36"/>
@@ -3995,33 +3374,25 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="20"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H9" s="33"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J9" s="20"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L9" s="33"/>
       <c r="M9" s="36"/>
-      <c r="N9" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N9" s="20"/>
       <c r="O9" s="11"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="11"/>
@@ -4029,33 +3400,21 @@
       <c r="S9" s="36"/>
       <c r="T9" s="23"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V9" s="39"/>
       <c r="W9" s="36"/>
-      <c r="X9" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X9" s="23"/>
       <c r="Y9" s="11"/>
-      <c r="Z9" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z9" s="39"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="23"/>
       <c r="AC9" s="11"/>
-      <c r="AD9" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD9" s="39"/>
       <c r="AE9" s="36"/>
       <c r="AF9" s="23"/>
       <c r="AG9" s="11"/>
-      <c r="AH9" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH9" s="39"/>
       <c r="AI9" s="36"/>
-      <c r="AJ9" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ9" s="23"/>
       <c r="AK9" s="11"/>
       <c r="AL9" s="39"/>
       <c r="AM9" s="36"/>
@@ -4064,193 +3423,125 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H10" s="33"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J10" s="20"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L10" s="33"/>
       <c r="M10" s="36"/>
-      <c r="N10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N10" s="20"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P10" s="23"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R10" s="39"/>
       <c r="S10" s="36"/>
-      <c r="T10" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T10" s="23"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V10" s="39"/>
       <c r="W10" s="36"/>
-      <c r="X10" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X10" s="23"/>
       <c r="Y10" s="11"/>
-      <c r="Z10" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z10" s="39"/>
       <c r="AA10" s="36"/>
-      <c r="AB10" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB10" s="23"/>
       <c r="AC10" s="11"/>
-      <c r="AD10" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD10" s="39"/>
       <c r="AE10" s="36"/>
-      <c r="AF10" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF10" s="23"/>
       <c r="AG10" s="11"/>
-      <c r="AH10" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH10" s="39"/>
       <c r="AI10" s="36"/>
-      <c r="AJ10" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ10" s="23"/>
       <c r="AK10" s="11"/>
-      <c r="AL10" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL10" s="39"/>
       <c r="AM10" s="36"/>
       <c r="AN10" s="23"/>
       <c r="AO10" s="11"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F11" s="20"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H11" s="33"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J11" s="20"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L11" s="33"/>
       <c r="M11" s="36"/>
-      <c r="N11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N11" s="20"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P11" s="23"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R11" s="39"/>
       <c r="S11" s="36"/>
-      <c r="T11" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T11" s="23"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V11" s="39"/>
       <c r="W11" s="36"/>
-      <c r="X11" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X11" s="23"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z11" s="39"/>
       <c r="AA11" s="36"/>
-      <c r="AB11" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB11" s="23"/>
       <c r="AC11" s="11"/>
-      <c r="AD11" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD11" s="39"/>
       <c r="AE11" s="36"/>
-      <c r="AF11" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF11" s="23"/>
       <c r="AG11" s="11"/>
-      <c r="AH11" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH11" s="39"/>
       <c r="AI11" s="36"/>
-      <c r="AJ11" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ11" s="23"/>
       <c r="AK11" s="11"/>
-      <c r="AL11" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL11" s="39"/>
       <c r="AM11" s="36"/>
       <c r="AN11" s="23"/>
       <c r="AO11" s="11"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="11"/>
@@ -4291,174 +3582,106 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F13" s="20"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H13" s="33"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J13" s="20"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L13" s="33"/>
       <c r="M13" s="36"/>
-      <c r="N13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N13" s="20"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P13" s="23"/>
       <c r="Q13" s="11"/>
-      <c r="R13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R13" s="39"/>
       <c r="S13" s="36"/>
-      <c r="T13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T13" s="23"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V13" s="39"/>
       <c r="W13" s="36"/>
-      <c r="X13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X13" s="23"/>
       <c r="Y13" s="11"/>
-      <c r="Z13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z13" s="39"/>
       <c r="AA13" s="36"/>
-      <c r="AB13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB13" s="23"/>
       <c r="AC13" s="11"/>
-      <c r="AD13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD13" s="39"/>
       <c r="AE13" s="36"/>
-      <c r="AF13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF13" s="23"/>
       <c r="AG13" s="11"/>
-      <c r="AH13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH13" s="39"/>
       <c r="AI13" s="36"/>
-      <c r="AJ13" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ13" s="23"/>
       <c r="AK13" s="11"/>
-      <c r="AL13" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL13" s="39"/>
       <c r="AM13" s="36"/>
       <c r="AN13" s="23"/>
       <c r="AO13" s="11"/>
     </row>
     <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F14" s="21"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="H14" s="34"/>
       <c r="I14" s="37"/>
-      <c r="J14" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="J14" s="21"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="L14" s="34"/>
       <c r="M14" s="37"/>
-      <c r="N14" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="N14" s="21"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="P14" s="24"/>
       <c r="Q14" s="13"/>
-      <c r="R14" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="R14" s="40"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="T14" s="24"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="V14" s="40"/>
       <c r="W14" s="37"/>
-      <c r="X14" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="X14" s="24"/>
       <c r="Y14" s="13"/>
-      <c r="Z14" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z14" s="40"/>
       <c r="AA14" s="37"/>
-      <c r="AB14" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB14" s="24"/>
       <c r="AC14" s="13"/>
-      <c r="AD14" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD14" s="40"/>
       <c r="AE14" s="37"/>
-      <c r="AF14" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF14" s="24"/>
       <c r="AG14" s="13"/>
-      <c r="AH14" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH14" s="40"/>
       <c r="AI14" s="37"/>
-      <c r="AJ14" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ14" s="24"/>
       <c r="AK14" s="13"/>
-      <c r="AL14" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL14" s="40"/>
       <c r="AM14" s="37"/>
       <c r="AN14" s="24"/>
       <c r="AO14" s="13"/>
@@ -4472,6 +3695,9 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -4483,9 +3709,6 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4495,470 +3718,376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO7"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP1:AS1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" style="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="46" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="46" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="46" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="48" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="46" t="s">
+      <c r="W1" s="48"/>
+      <c r="X1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="48" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="46" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="48" t="s">
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="46" t="s">
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="46" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="48" t="s">
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO1" s="47"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="48"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F3" s="19"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="32" t="s">
-        <v>23</v>
-      </c>
+      <c r="H3" s="32"/>
       <c r="I3" s="35"/>
-      <c r="J3" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="J3" s="19"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="32" t="s">
-        <v>23</v>
-      </c>
+      <c r="L3" s="32"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="N3" s="19"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="P3" s="22"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="R3" s="38"/>
       <c r="S3" s="35"/>
-      <c r="T3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="T3" s="22"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="V3" s="38"/>
       <c r="W3" s="35"/>
-      <c r="X3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="X3" s="22"/>
       <c r="Y3" s="16"/>
-      <c r="Z3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z3" s="38"/>
       <c r="AA3" s="35"/>
-      <c r="AB3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB3" s="22"/>
       <c r="AC3" s="16"/>
-      <c r="AD3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD3" s="38"/>
       <c r="AE3" s="35"/>
-      <c r="AF3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF3" s="22"/>
       <c r="AG3" s="16"/>
-      <c r="AH3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH3" s="38"/>
       <c r="AI3" s="35"/>
-      <c r="AJ3" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ3" s="22"/>
       <c r="AK3" s="16"/>
-      <c r="AL3" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL3" s="38"/>
       <c r="AM3" s="35"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="16"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F4" s="19"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="32" t="s">
-        <v>23</v>
-      </c>
+      <c r="H4" s="32"/>
       <c r="I4" s="35"/>
-      <c r="J4" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="J4" s="19"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="32" t="s">
-        <v>23</v>
-      </c>
+      <c r="L4" s="32"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="N4" s="19"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="P4" s="22"/>
       <c r="Q4" s="16"/>
-      <c r="R4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="R4" s="38"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="T4" s="22"/>
       <c r="U4" s="16"/>
-      <c r="V4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="V4" s="38"/>
       <c r="W4" s="35"/>
-      <c r="X4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="X4" s="22"/>
       <c r="Y4" s="16"/>
-      <c r="Z4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z4" s="38"/>
       <c r="AA4" s="35"/>
-      <c r="AB4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB4" s="22"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD4" s="38"/>
       <c r="AE4" s="35"/>
-      <c r="AF4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF4" s="22"/>
       <c r="AG4" s="16"/>
-      <c r="AH4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH4" s="38"/>
       <c r="AI4" s="35"/>
-      <c r="AJ4" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ4" s="22"/>
       <c r="AK4" s="16"/>
-      <c r="AL4" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL4" s="38"/>
       <c r="AM4" s="35"/>
       <c r="AN4" s="22"/>
       <c r="AO4" s="16"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H5" s="33"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J5" s="20"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L5" s="33"/>
       <c r="M5" s="36"/>
-      <c r="N5" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N5" s="20"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P5" s="23"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R5" s="39"/>
       <c r="S5" s="36"/>
-      <c r="T5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T5" s="23"/>
       <c r="U5" s="11"/>
-      <c r="V5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V5" s="39"/>
       <c r="W5" s="36"/>
-      <c r="X5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X5" s="23"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="39"/>
       <c r="AA5" s="36"/>
-      <c r="AB5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="39"/>
       <c r="AE5" s="36"/>
-      <c r="AF5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF5" s="23"/>
       <c r="AG5" s="11"/>
-      <c r="AH5" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH5" s="39"/>
       <c r="AI5" s="36"/>
-      <c r="AJ5" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ5" s="23"/>
       <c r="AK5" s="11"/>
       <c r="AL5" s="39"/>
       <c r="AM5" s="36"/>
@@ -4967,174 +4096,106 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="H6" s="33"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="J6" s="20"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="L6" s="33"/>
       <c r="M6" s="36"/>
-      <c r="N6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N6" s="20"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="P6" s="23"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="R6" s="39"/>
       <c r="S6" s="36"/>
-      <c r="T6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="T6" s="23"/>
       <c r="U6" s="11"/>
-      <c r="V6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="V6" s="39"/>
       <c r="W6" s="36"/>
-      <c r="X6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="X6" s="23"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z6" s="39"/>
       <c r="AA6" s="36"/>
-      <c r="AB6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD6" s="39"/>
       <c r="AE6" s="36"/>
-      <c r="AF6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF6" s="23"/>
       <c r="AG6" s="11"/>
-      <c r="AH6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH6" s="39"/>
       <c r="AI6" s="36"/>
-      <c r="AJ6" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ6" s="23"/>
       <c r="AK6" s="11"/>
-      <c r="AL6" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL6" s="39"/>
       <c r="AM6" s="36"/>
       <c r="AN6" s="23"/>
       <c r="AO6" s="11"/>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F7" s="21"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="H7" s="34"/>
       <c r="I7" s="37"/>
-      <c r="J7" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="J7" s="21"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="L7" s="34"/>
       <c r="M7" s="37"/>
-      <c r="N7" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="N7" s="21"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="P7" s="24"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="R7" s="40"/>
       <c r="S7" s="37"/>
-      <c r="T7" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="T7" s="24"/>
       <c r="U7" s="13"/>
-      <c r="V7" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="V7" s="40"/>
       <c r="W7" s="37"/>
-      <c r="X7" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="X7" s="24"/>
       <c r="Y7" s="13"/>
-      <c r="Z7" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z7" s="40"/>
       <c r="AA7" s="37"/>
-      <c r="AB7" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="AB7" s="24"/>
       <c r="AC7" s="13"/>
-      <c r="AD7" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD7" s="40"/>
       <c r="AE7" s="37"/>
-      <c r="AF7" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF7" s="24"/>
       <c r="AG7" s="13"/>
-      <c r="AH7" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH7" s="40"/>
       <c r="AI7" s="37"/>
-      <c r="AJ7" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ7" s="24"/>
       <c r="AK7" s="13"/>
-      <c r="AL7" s="40" t="s">
-        <v>23</v>
-      </c>
+      <c r="AL7" s="40"/>
       <c r="AM7" s="37"/>
       <c r="AN7" s="24"/>
       <c r="AO7" s="13"/>
@@ -5148,6 +4209,9 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -5159,9 +4223,6 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5171,252 +4232,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ1:AT1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="46" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="46" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="48" t="s">
+      <c r="V1" s="48"/>
+      <c r="W1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="46" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="48" t="s">
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="46" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="46" t="s">
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="48" t="s">
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="48" t="s">
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP1" s="47"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP1" s="48"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="29"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="I3" s="41"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="K3" s="29"/>
       <c r="L3" s="9"/>
       <c r="M3" s="41"/>
       <c r="N3" s="42"/>
@@ -5451,118 +4508,80 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G4" s="20"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="I4" s="33"/>
       <c r="J4" s="36"/>
-      <c r="K4" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="K4" s="20"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="M4" s="33"/>
       <c r="N4" s="36"/>
-      <c r="O4" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="O4" s="20"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q4" s="20"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="S4" s="33"/>
       <c r="T4" s="36"/>
-      <c r="U4" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="U4" s="20"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="W4" s="33"/>
       <c r="X4" s="36"/>
-      <c r="Y4" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y4" s="20"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA4" s="33"/>
       <c r="AB4" s="36"/>
-      <c r="AC4" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC4" s="20"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE4" s="33"/>
       <c r="AF4" s="36"/>
-      <c r="AG4" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG4" s="20"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI4" s="33"/>
       <c r="AJ4" s="36"/>
-      <c r="AK4" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK4" s="20"/>
       <c r="AL4" s="11"/>
-      <c r="AM4" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM4" s="33"/>
       <c r="AN4" s="36"/>
       <c r="AO4" s="20"/>
       <c r="AP4" s="11"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="20"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="I5" s="33"/>
       <c r="J5" s="36"/>
-      <c r="K5" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="K5" s="20"/>
       <c r="L5" s="11"/>
       <c r="M5" s="33"/>
       <c r="N5" s="36"/>
@@ -5597,810 +4616,504 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G6" s="20"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="I6" s="33"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="K6" s="20"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="M6" s="33"/>
       <c r="N6" s="36"/>
-      <c r="O6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="O6" s="20"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q6" s="20"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="S6" s="33"/>
       <c r="T6" s="36"/>
-      <c r="U6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="U6" s="20"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="W6" s="33"/>
       <c r="X6" s="36"/>
-      <c r="Y6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y6" s="20"/>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA6" s="33"/>
       <c r="AB6" s="36"/>
-      <c r="AC6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC6" s="20"/>
       <c r="AD6" s="11"/>
-      <c r="AE6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE6" s="33"/>
       <c r="AF6" s="36"/>
-      <c r="AG6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG6" s="20"/>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI6" s="33"/>
       <c r="AJ6" s="36"/>
-      <c r="AK6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK6" s="20"/>
       <c r="AL6" s="11"/>
-      <c r="AM6" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM6" s="33"/>
       <c r="AN6" s="36"/>
       <c r="AO6" s="20"/>
       <c r="AP6" s="11"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G7" s="20"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="I7" s="33"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="K7" s="20"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="M7" s="33"/>
       <c r="N7" s="36"/>
-      <c r="O7" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="O7" s="20"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q7" s="20"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="S7" s="33"/>
       <c r="T7" s="36"/>
-      <c r="U7" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="U7" s="20"/>
       <c r="V7" s="11"/>
-      <c r="W7" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="W7" s="33"/>
       <c r="X7" s="36"/>
-      <c r="Y7" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y7" s="20"/>
       <c r="Z7" s="11"/>
-      <c r="AA7" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA7" s="33"/>
       <c r="AB7" s="36"/>
-      <c r="AC7" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC7" s="20"/>
       <c r="AD7" s="11"/>
-      <c r="AE7" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE7" s="33"/>
       <c r="AF7" s="36"/>
-      <c r="AG7" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG7" s="20"/>
       <c r="AH7" s="11"/>
-      <c r="AI7" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI7" s="33"/>
       <c r="AJ7" s="36"/>
-      <c r="AK7" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK7" s="20"/>
       <c r="AL7" s="11"/>
-      <c r="AM7" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM7" s="33"/>
       <c r="AN7" s="36"/>
       <c r="AO7" s="20"/>
       <c r="AP7" s="11"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G8" s="20"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="I8" s="33"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="K8" s="20"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="M8" s="33"/>
       <c r="N8" s="36"/>
-      <c r="O8" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="O8" s="20"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q8" s="20"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="S8" s="33"/>
       <c r="T8" s="36"/>
-      <c r="U8" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="U8" s="20"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="W8" s="33"/>
       <c r="X8" s="36"/>
-      <c r="Y8" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="11"/>
-      <c r="AA8" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA8" s="33"/>
       <c r="AB8" s="36"/>
-      <c r="AC8" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="11"/>
-      <c r="AE8" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE8" s="33"/>
       <c r="AF8" s="36"/>
-      <c r="AG8" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="11"/>
-      <c r="AI8" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI8" s="33"/>
       <c r="AJ8" s="36"/>
-      <c r="AK8" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK8" s="20"/>
       <c r="AL8" s="11"/>
-      <c r="AM8" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM8" s="33"/>
       <c r="AN8" s="36"/>
       <c r="AO8" s="20"/>
       <c r="AP8" s="11"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G9" s="20"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="I9" s="33"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="K9" s="20"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="M9" s="33"/>
       <c r="N9" s="36"/>
-      <c r="O9" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="O9" s="20"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q9" s="20"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="S9" s="33"/>
       <c r="T9" s="36"/>
-      <c r="U9" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="U9" s="20"/>
       <c r="V9" s="11"/>
-      <c r="W9" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="W9" s="33"/>
       <c r="X9" s="36"/>
-      <c r="Y9" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y9" s="20"/>
       <c r="Z9" s="11"/>
-      <c r="AA9" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA9" s="33"/>
       <c r="AB9" s="36"/>
-      <c r="AC9" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC9" s="20"/>
       <c r="AD9" s="11"/>
-      <c r="AE9" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE9" s="33"/>
       <c r="AF9" s="36"/>
-      <c r="AG9" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG9" s="20"/>
       <c r="AH9" s="11"/>
-      <c r="AI9" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI9" s="33"/>
       <c r="AJ9" s="36"/>
-      <c r="AK9" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK9" s="20"/>
       <c r="AL9" s="11"/>
-      <c r="AM9" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM9" s="33"/>
       <c r="AN9" s="36"/>
       <c r="AO9" s="20"/>
       <c r="AP9" s="11"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G10" s="20"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="I10" s="33"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="K10" s="20"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="M10" s="33"/>
       <c r="N10" s="36"/>
-      <c r="O10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="O10" s="20"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q10" s="20"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="S10" s="33"/>
       <c r="T10" s="36"/>
-      <c r="U10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="U10" s="20"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="W10" s="33"/>
       <c r="X10" s="36"/>
-      <c r="Y10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y10" s="20"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA10" s="33"/>
       <c r="AB10" s="36"/>
-      <c r="AC10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC10" s="20"/>
       <c r="AD10" s="11"/>
-      <c r="AE10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE10" s="33"/>
       <c r="AF10" s="36"/>
-      <c r="AG10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG10" s="20"/>
       <c r="AH10" s="11"/>
-      <c r="AI10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI10" s="33"/>
       <c r="AJ10" s="36"/>
-      <c r="AK10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK10" s="20"/>
       <c r="AL10" s="11"/>
-      <c r="AM10" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM10" s="33"/>
       <c r="AN10" s="36"/>
       <c r="AO10" s="20"/>
       <c r="AP10" s="11"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G11" s="20"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="I11" s="33"/>
       <c r="J11" s="36"/>
-      <c r="K11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="K11" s="20"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="M11" s="33"/>
       <c r="N11" s="36"/>
-      <c r="O11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="O11" s="20"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q11" s="20"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="S11" s="33"/>
       <c r="T11" s="36"/>
-      <c r="U11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="U11" s="20"/>
       <c r="V11" s="11"/>
-      <c r="W11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="W11" s="33"/>
       <c r="X11" s="36"/>
-      <c r="Y11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y11" s="20"/>
       <c r="Z11" s="11"/>
-      <c r="AA11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA11" s="33"/>
       <c r="AB11" s="36"/>
-      <c r="AC11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC11" s="20"/>
       <c r="AD11" s="11"/>
-      <c r="AE11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE11" s="33"/>
       <c r="AF11" s="36"/>
-      <c r="AG11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG11" s="20"/>
       <c r="AH11" s="11"/>
-      <c r="AI11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI11" s="33"/>
       <c r="AJ11" s="36"/>
-      <c r="AK11" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK11" s="20"/>
       <c r="AL11" s="11"/>
-      <c r="AM11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM11" s="33"/>
       <c r="AN11" s="36"/>
       <c r="AO11" s="20"/>
       <c r="AP11" s="11"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="I12" s="33"/>
       <c r="J12" s="36"/>
-      <c r="K12" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="K12" s="20"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="M12" s="33"/>
       <c r="N12" s="36"/>
-      <c r="O12" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="O12" s="20"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q12" s="20"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="S12" s="33"/>
       <c r="T12" s="36"/>
-      <c r="U12" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="U12" s="20"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="W12" s="33"/>
       <c r="X12" s="36"/>
-      <c r="Y12" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y12" s="20"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA12" s="33"/>
       <c r="AB12" s="36"/>
-      <c r="AC12" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC12" s="20"/>
       <c r="AD12" s="11"/>
-      <c r="AE12" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE12" s="33"/>
       <c r="AF12" s="36"/>
-      <c r="AG12" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG12" s="20"/>
       <c r="AH12" s="11"/>
-      <c r="AI12" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI12" s="33"/>
       <c r="AJ12" s="36"/>
-      <c r="AK12" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK12" s="20"/>
       <c r="AL12" s="11"/>
-      <c r="AM12" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM12" s="33"/>
       <c r="AN12" s="36"/>
       <c r="AO12" s="20"/>
       <c r="AP12" s="11"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" s="20"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="I13" s="33"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="K13" s="20"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="M13" s="33"/>
       <c r="N13" s="36"/>
-      <c r="O13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="O13" s="20"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q13" s="20"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="S13" s="33"/>
       <c r="T13" s="36"/>
-      <c r="U13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="U13" s="20"/>
       <c r="V13" s="11"/>
-      <c r="W13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="W13" s="33"/>
       <c r="X13" s="36"/>
-      <c r="Y13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="11"/>
-      <c r="AA13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA13" s="33"/>
       <c r="AB13" s="36"/>
-      <c r="AC13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="11"/>
-      <c r="AE13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE13" s="33"/>
       <c r="AF13" s="36"/>
-      <c r="AG13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="11"/>
-      <c r="AI13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI13" s="33"/>
       <c r="AJ13" s="36"/>
-      <c r="AK13" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="11"/>
-      <c r="AM13" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM13" s="33"/>
       <c r="AN13" s="36"/>
       <c r="AO13" s="20"/>
       <c r="AP13" s="11"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G14" s="21"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="I14" s="34"/>
       <c r="J14" s="37"/>
-      <c r="K14" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="K14" s="21"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="M14" s="34"/>
       <c r="N14" s="37"/>
-      <c r="O14" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="O14" s="21"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q14" s="21"/>
       <c r="R14" s="13"/>
-      <c r="S14" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="S14" s="34"/>
       <c r="T14" s="37"/>
-      <c r="U14" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="U14" s="21"/>
       <c r="V14" s="13"/>
-      <c r="W14" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="W14" s="34"/>
       <c r="X14" s="37"/>
-      <c r="Y14" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y14" s="21"/>
       <c r="Z14" s="13"/>
-      <c r="AA14" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA14" s="34"/>
       <c r="AB14" s="37"/>
-      <c r="AC14" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC14" s="21"/>
       <c r="AD14" s="13"/>
-      <c r="AE14" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE14" s="34"/>
       <c r="AF14" s="37"/>
-      <c r="AG14" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG14" s="21"/>
       <c r="AH14" s="13"/>
-      <c r="AI14" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI14" s="34"/>
       <c r="AJ14" s="37"/>
-      <c r="AK14" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK14" s="21"/>
       <c r="AL14" s="13"/>
-      <c r="AM14" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM14" s="34"/>
       <c r="AN14" s="37"/>
       <c r="AO14" s="21"/>
       <c r="AP14" s="13"/>
@@ -6415,6 +5128,9 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
@@ -6426,9 +5142,6 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6438,339 +5151,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3:AP10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="46" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="46" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="48" t="s">
+      <c r="V1" s="48"/>
+      <c r="W1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="46" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="48" t="s">
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="46" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="46" t="s">
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="48" t="s">
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="48" t="s">
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP1" s="47"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP1" s="48"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S2" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T2" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X2" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z2" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA2" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB2" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD2" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE2" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF2" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH2" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ2" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL2" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM2" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN2" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP2" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G3" s="29"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="I3" s="41"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="K3" s="29"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="M3" s="41"/>
       <c r="N3" s="42"/>
-      <c r="O3" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="O3" s="29"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q3" s="29"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="S3" s="41"/>
       <c r="T3" s="42"/>
-      <c r="U3" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="U3" s="29"/>
       <c r="V3" s="9"/>
-      <c r="W3" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="W3" s="41"/>
       <c r="X3" s="42"/>
-      <c r="Y3" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y3" s="29"/>
       <c r="Z3" s="9"/>
-      <c r="AA3" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA3" s="41"/>
       <c r="AB3" s="42"/>
-      <c r="AC3" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC3" s="29"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE3" s="41"/>
       <c r="AF3" s="42"/>
-      <c r="AG3" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG3" s="29"/>
       <c r="AH3" s="9"/>
-      <c r="AI3" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI3" s="41"/>
       <c r="AJ3" s="42"/>
-      <c r="AK3" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK3" s="29"/>
       <c r="AL3" s="9"/>
-      <c r="AM3" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM3" s="41"/>
       <c r="AN3" s="42"/>
       <c r="AO3" s="29"/>
       <c r="AP3" s="9"/>
     </row>
     <row r="4" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="9"/>
       <c r="I4" s="41"/>
       <c r="J4" s="42"/>
-      <c r="K4" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="K4" s="29"/>
       <c r="L4" s="9"/>
       <c r="M4" s="41"/>
       <c r="N4" s="42"/>
@@ -6778,31 +5455,21 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="S4" s="41"/>
       <c r="T4" s="42"/>
       <c r="U4" s="29"/>
       <c r="V4" s="9"/>
       <c r="W4" s="41"/>
       <c r="X4" s="42"/>
-      <c r="Y4" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y4" s="29"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="41"/>
       <c r="AB4" s="42"/>
-      <c r="AC4" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC4" s="29"/>
       <c r="AD4" s="9"/>
-      <c r="AE4" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE4" s="41"/>
       <c r="AF4" s="42"/>
-      <c r="AG4" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG4" s="29"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="41"/>
       <c r="AJ4" s="42"/>
@@ -6815,362 +5482,226 @@
     </row>
     <row r="5" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>23</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G5" s="29"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="I5" s="41"/>
       <c r="J5" s="42"/>
-      <c r="K5" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="K5" s="29"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="M5" s="41"/>
       <c r="N5" s="42"/>
-      <c r="O5" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="O5" s="29"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q5" s="29"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="S5" s="41"/>
       <c r="T5" s="42"/>
-      <c r="U5" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="U5" s="29"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="W5" s="41"/>
       <c r="X5" s="42"/>
-      <c r="Y5" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y5" s="29"/>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA5" s="41"/>
       <c r="AB5" s="42"/>
-      <c r="AC5" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC5" s="29"/>
       <c r="AD5" s="9"/>
-      <c r="AE5" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE5" s="41"/>
       <c r="AF5" s="42"/>
-      <c r="AG5" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG5" s="29"/>
       <c r="AH5" s="9"/>
-      <c r="AI5" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI5" s="41"/>
       <c r="AJ5" s="42"/>
-      <c r="AK5" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK5" s="29"/>
       <c r="AL5" s="9"/>
-      <c r="AM5" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM5" s="41"/>
       <c r="AN5" s="42"/>
       <c r="AO5" s="29"/>
       <c r="AP5" s="9"/>
     </row>
     <row r="6" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G6" s="29"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="I6" s="41"/>
       <c r="J6" s="42"/>
-      <c r="K6" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="K6" s="29"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="M6" s="41"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="O6" s="29"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q6" s="29"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="S6" s="41"/>
       <c r="T6" s="42"/>
-      <c r="U6" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="U6" s="29"/>
       <c r="V6" s="9"/>
-      <c r="W6" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="W6" s="41"/>
       <c r="X6" s="42"/>
-      <c r="Y6" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y6" s="29"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA6" s="41"/>
       <c r="AB6" s="42"/>
-      <c r="AC6" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC6" s="29"/>
       <c r="AD6" s="9"/>
-      <c r="AE6" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE6" s="41"/>
       <c r="AF6" s="42"/>
-      <c r="AG6" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG6" s="29"/>
       <c r="AH6" s="9"/>
-      <c r="AI6" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI6" s="41"/>
       <c r="AJ6" s="42"/>
-      <c r="AK6" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK6" s="29"/>
       <c r="AL6" s="9"/>
-      <c r="AM6" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM6" s="41"/>
       <c r="AN6" s="42"/>
       <c r="AO6" s="29"/>
       <c r="AP6" s="9"/>
     </row>
     <row r="7" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G7" s="29"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="I7" s="41"/>
       <c r="J7" s="42"/>
-      <c r="K7" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="K7" s="29"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="M7" s="41"/>
       <c r="N7" s="42"/>
-      <c r="O7" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="O7" s="29"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q7" s="29"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="S7" s="41"/>
       <c r="T7" s="42"/>
-      <c r="U7" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="U7" s="29"/>
       <c r="V7" s="9"/>
-      <c r="W7" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="W7" s="41"/>
       <c r="X7" s="42"/>
-      <c r="Y7" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y7" s="29"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA7" s="41"/>
       <c r="AB7" s="42"/>
-      <c r="AC7" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="9"/>
-      <c r="AE7" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE7" s="41"/>
       <c r="AF7" s="42"/>
-      <c r="AG7" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG7" s="29"/>
       <c r="AH7" s="9"/>
-      <c r="AI7" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI7" s="41"/>
       <c r="AJ7" s="42"/>
-      <c r="AK7" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK7" s="29"/>
       <c r="AL7" s="9"/>
-      <c r="AM7" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM7" s="41"/>
       <c r="AN7" s="42"/>
       <c r="AO7" s="29"/>
       <c r="AP7" s="9"/>
     </row>
     <row r="8" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>23</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G8" s="29"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="I8" s="41"/>
       <c r="J8" s="42"/>
-      <c r="K8" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="K8" s="29"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="M8" s="41"/>
       <c r="N8" s="42"/>
-      <c r="O8" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="O8" s="29"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q8" s="29"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="S8" s="41"/>
       <c r="T8" s="42"/>
-      <c r="U8" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="U8" s="29"/>
       <c r="V8" s="9"/>
-      <c r="W8" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="W8" s="41"/>
       <c r="X8" s="42"/>
-      <c r="Y8" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y8" s="29"/>
       <c r="Z8" s="9"/>
-      <c r="AA8" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA8" s="41"/>
       <c r="AB8" s="42"/>
-      <c r="AC8" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="9"/>
-      <c r="AE8" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE8" s="41"/>
       <c r="AF8" s="42"/>
-      <c r="AG8" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AG8" s="29"/>
       <c r="AH8" s="9"/>
-      <c r="AI8" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI8" s="41"/>
       <c r="AJ8" s="42"/>
-      <c r="AK8" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AK8" s="29"/>
       <c r="AL8" s="9"/>
-      <c r="AM8" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AM8" s="41"/>
       <c r="AN8" s="42"/>
       <c r="AO8" s="29"/>
       <c r="AP8" s="9"/>
     </row>
     <row r="9" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -7194,19 +5725,13 @@
       <c r="V9" s="9"/>
       <c r="W9" s="41"/>
       <c r="X9" s="42"/>
-      <c r="Y9" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y9" s="29"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="41"/>
       <c r="AB9" s="42"/>
-      <c r="AC9" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="AC9" s="29"/>
       <c r="AD9" s="9"/>
-      <c r="AE9" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE9" s="41"/>
       <c r="AF9" s="42"/>
       <c r="AG9" s="29"/>
       <c r="AH9" s="9"/>
@@ -7221,10 +5746,10 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -7254,15 +5779,11 @@
       <c r="AB10" s="42"/>
       <c r="AC10" s="29"/>
       <c r="AD10" s="9"/>
-      <c r="AE10" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE10" s="41"/>
       <c r="AF10" s="42"/>
       <c r="AG10" s="29"/>
       <c r="AH10" s="9"/>
-      <c r="AI10" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI10" s="41"/>
       <c r="AJ10" s="42"/>
       <c r="AK10" s="29"/>
       <c r="AL10" s="9"/>
@@ -7281,6 +5802,7 @@
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:A2"/>
@@ -7289,7 +5811,6 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
@@ -7304,452 +5825,450 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6328125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
         <v>124</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>130</v>
@@ -7757,10 +6276,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>131</v>
@@ -7768,7 +6287,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
         <v>132</v>
@@ -7779,7 +6298,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
         <v>134</v>
@@ -7790,10 +6309,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
         <v>136</v>
@@ -7801,10 +6320,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
         <v>137</v>
@@ -7812,10 +6331,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
         <v>138</v>
@@ -7823,10 +6342,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
         <v>139</v>
@@ -7834,10 +6353,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
         <v>140</v>
@@ -7845,10 +6364,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>141</v>
@@ -7856,10 +6375,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
         <v>142</v>
@@ -7867,10 +6386,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
         <v>143</v>
@@ -7878,10 +6397,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
         <v>144</v>
@@ -7889,10 +6408,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
         <v>145</v>

--- a/DM/seed/Domain Data Template.xlsx
+++ b/DM/seed/Domain Data Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LiuZP\00 LiuZP\Code\Python\DM\seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAC7181-426F-4941-9F18-4AB4A7D61284}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABA4066-C152-4016-8F16-EF93A430B74F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="17020" windowHeight="10120" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="147">
   <si>
     <t>Datasets</t>
   </si>
@@ -897,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1013,14 +1013,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1029,16 +1041,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1353,104 +1355,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AS26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="42" max="45" width="8.7265625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="50" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="49" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="50" t="s">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49" t="s">
+      <c r="S1" s="52"/>
+      <c r="T1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="50" t="s">
+      <c r="U1" s="52"/>
+      <c r="V1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49" t="s">
+      <c r="W1" s="52"/>
+      <c r="X1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="50" t="s">
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="49" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="50" t="s">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="49" t="s">
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="49" t="s">
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="50" t="s">
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="55" t="s">
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="56"/>
-    </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="54"/>
+    </row>
+    <row r="2" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="52"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
@@ -1565,14 +1576,26 @@
       <c r="AM2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO2" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AN2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS2" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
@@ -1624,8 +1647,12 @@
       <c r="AM3" s="35"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="16"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="16"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -1677,8 +1704,12 @@
       <c r="AM4" s="36"/>
       <c r="AN4" s="23"/>
       <c r="AO4" s="11"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="11"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -1730,8 +1761,12 @@
       <c r="AM5" s="36"/>
       <c r="AN5" s="23"/>
       <c r="AO5" s="11"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="11"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1783,8 +1818,12 @@
       <c r="AM6" s="36"/>
       <c r="AN6" s="23"/>
       <c r="AO6" s="11"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="11"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -1832,8 +1871,12 @@
       <c r="AM7" s="36"/>
       <c r="AN7" s="23"/>
       <c r="AO7" s="11"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="11"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1881,8 +1924,12 @@
       <c r="AM8" s="36"/>
       <c r="AN8" s="23"/>
       <c r="AO8" s="11"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="11"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -1930,8 +1977,12 @@
       <c r="AM9" s="36"/>
       <c r="AN9" s="23"/>
       <c r="AO9" s="11"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="11"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1979,8 +2030,12 @@
       <c r="AM10" s="36"/>
       <c r="AN10" s="23"/>
       <c r="AO10" s="11"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="23"/>
+      <c r="AS10" s="11"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -2028,8 +2083,12 @@
       <c r="AM11" s="36"/>
       <c r="AN11" s="23"/>
       <c r="AO11" s="11"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="11"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -2081,8 +2140,12 @@
       <c r="AM12" s="36"/>
       <c r="AN12" s="23"/>
       <c r="AO12" s="11"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="23"/>
+      <c r="AS12" s="11"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -2134,8 +2197,12 @@
       <c r="AM13" s="36"/>
       <c r="AN13" s="23"/>
       <c r="AO13" s="11"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="23"/>
+      <c r="AS13" s="11"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -2187,8 +2254,12 @@
       <c r="AM14" s="36"/>
       <c r="AN14" s="23"/>
       <c r="AO14" s="11"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="23"/>
+      <c r="AS14" s="11"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
@@ -2240,8 +2311,12 @@
       <c r="AM15" s="36"/>
       <c r="AN15" s="23"/>
       <c r="AO15" s="11"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="11"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -2289,8 +2364,12 @@
       <c r="AM16" s="36"/>
       <c r="AN16" s="23"/>
       <c r="AO16" s="11"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="11"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -2338,8 +2417,12 @@
       <c r="AM17" s="36"/>
       <c r="AN17" s="23"/>
       <c r="AO17" s="11"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="23"/>
+      <c r="AS17" s="11"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -2387,8 +2470,12 @@
       <c r="AM18" s="36"/>
       <c r="AN18" s="23"/>
       <c r="AO18" s="11"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="23"/>
+      <c r="AS18" s="11"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -2440,8 +2527,12 @@
       <c r="AM19" s="36"/>
       <c r="AN19" s="23"/>
       <c r="AO19" s="11"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="23"/>
+      <c r="AS19" s="11"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -2493,8 +2584,12 @@
       <c r="AM20" s="36"/>
       <c r="AN20" s="23"/>
       <c r="AO20" s="11"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="23"/>
+      <c r="AS20" s="11"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -2546,8 +2641,12 @@
       <c r="AM21" s="36"/>
       <c r="AN21" s="23"/>
       <c r="AO21" s="11"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="23"/>
+      <c r="AS21" s="11"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>43</v>
       </c>
@@ -2599,8 +2698,12 @@
       <c r="AM22" s="36"/>
       <c r="AN22" s="23"/>
       <c r="AO22" s="11"/>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="23"/>
+      <c r="AS22" s="11"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
@@ -2652,8 +2755,12 @@
       <c r="AM23" s="36"/>
       <c r="AN23" s="23"/>
       <c r="AO23" s="11"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="23"/>
+      <c r="AS23" s="11"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
@@ -2701,8 +2808,12 @@
       <c r="AM24" s="36"/>
       <c r="AN24" s="23"/>
       <c r="AO24" s="11"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="23"/>
+      <c r="AS24" s="11"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>46</v>
       </c>
@@ -2754,8 +2865,12 @@
       <c r="AM25" s="36"/>
       <c r="AN25" s="23"/>
       <c r="AO25" s="11"/>
-    </row>
-    <row r="26" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="23"/>
+      <c r="AS25" s="11"/>
+    </row>
+    <row r="26" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
@@ -2807,12 +2922,13 @@
       <c r="AM26" s="37"/>
       <c r="AN26" s="24"/>
       <c r="AO26" s="13"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="24"/>
+      <c r="AS26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="X1:Y1"/>
+  <mergeCells count="23">
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AJ1:AK1"/>
@@ -2820,6 +2936,8 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
@@ -2831,6 +2949,9 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2839,104 +2960,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AS14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:AO14"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="42" max="45" width="8.7265625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="50" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="49" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="50" t="s">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49" t="s">
+      <c r="S1" s="52"/>
+      <c r="T1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="50" t="s">
+      <c r="U1" s="52"/>
+      <c r="V1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49" t="s">
+      <c r="W1" s="52"/>
+      <c r="X1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="50" t="s">
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="49" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="50" t="s">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="49" t="s">
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="49" t="s">
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="50" t="s">
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49" t="s">
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="48"/>
-    </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="52"/>
+    </row>
+    <row r="2" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="52"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3057,8 +3187,20 @@
       <c r="AO2" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS2" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
@@ -3110,8 +3252,12 @@
       <c r="AM3" s="35"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="16"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="16"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -3163,8 +3309,12 @@
       <c r="AM4" s="35"/>
       <c r="AN4" s="22"/>
       <c r="AO4" s="16"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="16"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -3216,8 +3366,12 @@
       <c r="AM5" s="36"/>
       <c r="AN5" s="23"/>
       <c r="AO5" s="11"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="11"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3269,8 +3423,12 @@
       <c r="AM6" s="36"/>
       <c r="AN6" s="23"/>
       <c r="AO6" s="11"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="11"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
@@ -3322,8 +3480,12 @@
       <c r="AM7" s="36"/>
       <c r="AN7" s="23"/>
       <c r="AO7" s="11"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="11"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -3371,8 +3533,12 @@
       <c r="AM8" s="36"/>
       <c r="AN8" s="23"/>
       <c r="AO8" s="11"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="11"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
@@ -3420,8 +3586,12 @@
       <c r="AM9" s="36"/>
       <c r="AN9" s="23"/>
       <c r="AO9" s="11"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="11"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -3473,8 +3643,12 @@
       <c r="AM10" s="36"/>
       <c r="AN10" s="23"/>
       <c r="AO10" s="11"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="23"/>
+      <c r="AS10" s="11"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>52</v>
       </c>
@@ -3526,8 +3700,12 @@
       <c r="AM11" s="36"/>
       <c r="AN11" s="23"/>
       <c r="AO11" s="11"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="11"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
@@ -3579,8 +3757,12 @@
       <c r="AM12" s="36"/>
       <c r="AN12" s="23"/>
       <c r="AO12" s="11"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="23"/>
+      <c r="AS12" s="11"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
@@ -3632,8 +3814,12 @@
       <c r="AM13" s="36"/>
       <c r="AN13" s="23"/>
       <c r="AO13" s="11"/>
-    </row>
-    <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="23"/>
+      <c r="AS13" s="11"/>
+    </row>
+    <row r="14" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>54</v>
       </c>
@@ -3685,9 +3871,15 @@
       <c r="AM14" s="37"/>
       <c r="AN14" s="24"/>
       <c r="AO14" s="13"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
@@ -3716,104 +3908,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:AO7"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="42" max="45" width="8.7265625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="50" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="49" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="50" t="s">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49" t="s">
+      <c r="S1" s="52"/>
+      <c r="T1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="50" t="s">
+      <c r="U1" s="52"/>
+      <c r="V1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49" t="s">
+      <c r="W1" s="52"/>
+      <c r="X1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="50" t="s">
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="49" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="50" t="s">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="49" t="s">
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="49" t="s">
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="50" t="s">
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49" t="s">
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="48"/>
-    </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="52"/>
+    </row>
+    <row r="2" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="52"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3934,8 +4135,20 @@
       <c r="AO2" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS2" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>43</v>
       </c>
@@ -3987,8 +4200,12 @@
       <c r="AM3" s="35"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="16"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="16"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>55</v>
       </c>
@@ -4040,8 +4257,12 @@
       <c r="AM4" s="35"/>
       <c r="AN4" s="22"/>
       <c r="AO4" s="16"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="16"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
@@ -4093,8 +4314,12 @@
       <c r="AM5" s="36"/>
       <c r="AN5" s="23"/>
       <c r="AO5" s="11"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="11"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -4146,8 +4371,12 @@
       <c r="AM6" s="36"/>
       <c r="AN6" s="23"/>
       <c r="AO6" s="11"/>
-    </row>
-    <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="11"/>
+    </row>
+    <row r="7" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>58</v>
       </c>
@@ -4199,9 +4428,15 @@
       <c r="AM7" s="37"/>
       <c r="AN7" s="24"/>
       <c r="AO7" s="13"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
@@ -4230,109 +4465,118 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AP14"/>
+  <dimension ref="A1:AT14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:AP14"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7265625" style="46" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="8.7265625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="50" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="49" t="s">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="50" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="49" t="s">
+      <c r="T1" s="52"/>
+      <c r="U1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="50" t="s">
+      <c r="V1" s="52"/>
+      <c r="W1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="49" t="s">
+      <c r="X1" s="52"/>
+      <c r="Y1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="50" t="s">
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="49" t="s">
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="50" t="s">
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="49" t="s">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="50" t="s">
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="49" t="s">
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="50" t="s">
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="49" t="s">
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="48"/>
-    </row>
-    <row r="2" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT1" s="52"/>
+    </row>
+    <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -4453,8 +4697,20 @@
       <c r="AP2" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT2" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4761,12 @@
       <c r="AN3" s="42"/>
       <c r="AO3" s="29"/>
       <c r="AP3" s="9"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="9"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
@@ -4561,8 +4821,12 @@
       <c r="AN4" s="36"/>
       <c r="AO4" s="20"/>
       <c r="AP4" s="11"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="11"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
@@ -4613,8 +4877,12 @@
       <c r="AN5" s="36"/>
       <c r="AO5" s="20"/>
       <c r="AP5" s="11"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="11"/>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -4669,8 +4937,12 @@
       <c r="AN6" s="36"/>
       <c r="AO6" s="20"/>
       <c r="AP6" s="11"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ6" s="33"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="11"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
@@ -4725,8 +4997,12 @@
       <c r="AN7" s="36"/>
       <c r="AO7" s="20"/>
       <c r="AP7" s="11"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="11"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
@@ -4781,8 +5057,12 @@
       <c r="AN8" s="36"/>
       <c r="AO8" s="20"/>
       <c r="AP8" s="11"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="11"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -4837,8 +5117,12 @@
       <c r="AN9" s="36"/>
       <c r="AO9" s="20"/>
       <c r="AP9" s="11"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="11"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -4893,8 +5177,12 @@
       <c r="AN10" s="36"/>
       <c r="AO10" s="20"/>
       <c r="AP10" s="11"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="11"/>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
@@ -4949,8 +5237,12 @@
       <c r="AN11" s="36"/>
       <c r="AO11" s="20"/>
       <c r="AP11" s="11"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="11"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
@@ -5005,8 +5297,12 @@
       <c r="AN12" s="36"/>
       <c r="AO12" s="20"/>
       <c r="AP12" s="11"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="11"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>81</v>
       </c>
@@ -5061,8 +5357,12 @@
       <c r="AN13" s="36"/>
       <c r="AO13" s="20"/>
       <c r="AP13" s="11"/>
-    </row>
-    <row r="14" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AQ13" s="33"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="11"/>
+    </row>
+    <row r="14" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>83</v>
       </c>
@@ -5117,9 +5417,15 @@
       <c r="AN14" s="37"/>
       <c r="AO14" s="21"/>
       <c r="AP14" s="13"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
@@ -5149,10 +5455,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:AP10"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5160,99 +5466,108 @@
     <col min="1" max="1" width="15.7265625" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7265625" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.90625" style="46" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="8.7265625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="50" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="49" t="s">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="50" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="49" t="s">
+      <c r="T1" s="52"/>
+      <c r="U1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="50" t="s">
+      <c r="V1" s="52"/>
+      <c r="W1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="49" t="s">
+      <c r="X1" s="52"/>
+      <c r="Y1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="50" t="s">
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="49" t="s">
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="50" t="s">
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="49" t="s">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="50" t="s">
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="49" t="s">
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="50" t="s">
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="49" t="s">
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="48"/>
-    </row>
-    <row r="2" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT1" s="52"/>
+    </row>
+    <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -5373,8 +5688,20 @@
       <c r="AP2" s="45" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AQ2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR2" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT2" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -5427,8 +5754,12 @@
       <c r="AN3" s="42"/>
       <c r="AO3" s="29"/>
       <c r="AP3" s="9"/>
-    </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="9"/>
+    </row>
+    <row r="4" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -5479,8 +5810,12 @@
       <c r="AN4" s="42"/>
       <c r="AO4" s="29"/>
       <c r="AP4" s="9"/>
-    </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="9"/>
+    </row>
+    <row r="5" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -5533,8 +5868,12 @@
       <c r="AN5" s="42"/>
       <c r="AO5" s="29"/>
       <c r="AP5" s="9"/>
-    </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="29"/>
+      <c r="AT5" s="9"/>
+    </row>
+    <row r="6" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -5587,8 +5926,12 @@
       <c r="AN6" s="42"/>
       <c r="AO6" s="29"/>
       <c r="AP6" s="9"/>
-    </row>
-    <row r="7" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="29"/>
+      <c r="AT6" s="9"/>
+    </row>
+    <row r="7" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
@@ -5641,8 +5984,12 @@
       <c r="AN7" s="42"/>
       <c r="AO7" s="29"/>
       <c r="AP7" s="9"/>
-    </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="9"/>
+    </row>
+    <row r="8" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -5695,8 +6042,12 @@
       <c r="AN8" s="42"/>
       <c r="AO8" s="29"/>
       <c r="AP8" s="9"/>
-    </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AQ8" s="41"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="9"/>
+    </row>
+    <row r="9" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -5743,8 +6094,12 @@
       <c r="AN9" s="42"/>
       <c r="AO9" s="29"/>
       <c r="AP9" s="9"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="9"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -5791,9 +6146,15 @@
       <c r="AN10" s="42"/>
       <c r="AO10" s="29"/>
       <c r="AP10" s="9"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
